--- a/Presupuesto/Presupuesto.xlsx
+++ b/Presupuesto/Presupuesto.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\UNI\UNI 4R CURS\TFG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D70F76-6C2D-4BC6-A22F-81A0DDEADEFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4571563D-63C1-4FD8-8B97-B103754ED68A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15030" yWindow="3120" windowWidth="27000" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
     <r>
       <t>C</t>
@@ -66,9 +68,6 @@
     <t>Parallax 28015</t>
   </si>
   <si>
-    <t>Advanantennas SP11</t>
-  </si>
-  <si>
     <t>Conversor DCDC 12V a 24V</t>
   </si>
   <si>
@@ -84,9 +83,6 @@
     <t>Cable USB a Micro USB 0,6m</t>
   </si>
   <si>
-    <t>2.60€</t>
-  </si>
-  <si>
     <t>Cable Ethernet RJ45</t>
   </si>
   <si>
@@ -96,15 +92,9 @@
     <t>Adaptador Molex 0430250200</t>
   </si>
   <si>
-    <t>0.90€</t>
-  </si>
-  <si>
     <t>Adaptador Molex 0462355002</t>
   </si>
   <si>
-    <t>1.80€</t>
-  </si>
-  <si>
     <t>Estructura</t>
   </si>
   <si>
@@ -123,9 +113,6 @@
     <t>PNBS-WSH-D127B-M3-A2</t>
   </si>
   <si>
-    <t>0.20€</t>
-  </si>
-  <si>
     <t>PNBS-WSH-D127B-M4-A2</t>
   </si>
   <si>
@@ -175,17 +162,42 @@
   </si>
   <si>
     <t>AdvanReader 160</t>
+  </si>
+  <si>
+    <t>Advantenna SP11</t>
+  </si>
+  <si>
+    <t>Mano de obra</t>
+  </si>
+  <si>
+    <t>Coste de ingeniería</t>
+  </si>
+  <si>
+    <t>Coste de montaje</t>
+  </si>
+  <si>
+    <t>No se contempla, puesto que no se trata de un producto acabado</t>
+  </si>
+  <si>
+    <t>ASM-Laser-RPLIDAR.01</t>
+  </si>
+  <si>
+    <t>8h*5dias*4semanas*1,5meses*25 €/hora brutos</t>
+  </si>
+  <si>
+    <t>8h*25€/h brutos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,8 +238,15 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,6 +263,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -308,10 +332,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -343,66 +368,84 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="8" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="6" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="6" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="6" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="6" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="6" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="8" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Incorrecto" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -681,15 +724,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D2:L35"/>
+  <dimension ref="C2:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
     <col min="5" max="5" width="28.85546875" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="9" max="9" width="7.140625" customWidth="1"/>
@@ -699,18 +743,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D2" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="J2" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="24"/>
-    </row>
-    <row r="3" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="D2" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="J2" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="26"/>
+      <c r="L2" s="13"/>
+    </row>
+    <row r="3" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+    </row>
     <row r="4" spans="4:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" s="1" t="s">
         <v>0</v>
@@ -721,12 +768,12 @@
       <c r="F4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="27">
+      <c r="J4" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="17">
         <f>F35</f>
-        <v>2204.88</v>
+        <v>2253.1499999999996</v>
       </c>
     </row>
     <row r="5" spans="4:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -739,12 +786,12 @@
       <c r="F5" s="5">
         <v>499</v>
       </c>
-      <c r="J5" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="25">
+      <c r="J5" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="19">
         <f>K4*0.16</f>
-        <v>352.7808</v>
+        <v>360.50399999999996</v>
       </c>
     </row>
     <row r="6" spans="4:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -757,12 +804,12 @@
       <c r="F6" s="8">
         <v>35</v>
       </c>
-      <c r="J6" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="26">
+      <c r="J6" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="19">
         <f>K4*0.06</f>
-        <v>132.2928</v>
+        <v>135.18899999999996</v>
       </c>
     </row>
     <row r="7" spans="4:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -775,12 +822,12 @@
       <c r="F7" s="5">
         <v>90</v>
       </c>
-      <c r="J7" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="25">
+      <c r="J7" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="19">
         <f>SUM(K4:K6)</f>
-        <v>2689.9536000000003</v>
+        <v>2748.8429999999994</v>
       </c>
     </row>
     <row r="8" spans="4:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -799,72 +846,75 @@
         <v>1</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F9" s="5">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="10" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="10" spans="4:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D10" s="6">
         <v>4</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="9">
-        <v>396.88</v>
-      </c>
-      <c r="J10" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" s="16"/>
+        <v>39</v>
+      </c>
+      <c r="F10" s="8">
+        <f>4*70</f>
+        <v>280</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="26"/>
     </row>
     <row r="11" spans="4:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="3">
         <v>1</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" s="5">
         <v>21</v>
       </c>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
     </row>
     <row r="12" spans="4:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="6">
         <v>1</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" s="8">
         <v>2</v>
       </c>
-      <c r="J12" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="K12" s="28">
+      <c r="J12" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="21">
         <f>K7</f>
-        <v>2689.9536000000003</v>
+        <v>2748.8429999999994</v>
       </c>
     </row>
     <row r="13" spans="4:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13" s="29">
+      <c r="J13" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" s="23">
         <f>K12*0.21</f>
-        <v>564.89025600000002</v>
+        <v>577.25702999999987</v>
       </c>
     </row>
     <row r="14" spans="4:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -872,15 +922,17 @@
         <v>4</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="J14" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="K14" s="30">
+        <v>37</v>
+      </c>
+      <c r="F14" s="9">
+        <v>8.5</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="23">
         <f>SUM(K12:K13)</f>
-        <v>3254.8438560000004</v>
+        <v>3326.1000299999992</v>
       </c>
     </row>
     <row r="15" spans="4:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -888,10 +940,10 @@
         <v>2</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="F15" s="14">
+        <v>2.6</v>
       </c>
     </row>
     <row r="16" spans="4:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -899,194 +951,237 @@
         <v>1</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F16" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D17" s="3">
         <v>1</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F17" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D18" s="6">
         <v>3</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D19" s="3">
         <v>6</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="F19" s="14">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D20" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D21" s="3">
-        <v>1</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="10"/>
-    </row>
-    <row r="22" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D22" s="6">
-        <v>1</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="10"/>
-    </row>
-    <row r="24" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D24" s="11"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D21" s="27">
+        <v>1</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="33">
+        <v>139.25</v>
+      </c>
+    </row>
+    <row r="22" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D22" s="28">
+        <v>1</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="34">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D23" s="27">
+        <v>1</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="33">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="24" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D24" s="28">
+        <v>1</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="34">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="25" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D25" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D26" s="6">
+    <row r="26" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="27">
         <v>4</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="37">
+        <v>2</v>
+      </c>
+      <c r="I26" s="32"/>
+    </row>
+    <row r="27" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D27" s="28">
+        <v>4</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="31">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D28" s="35">
+        <v>4</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="36">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D29" s="28">
+        <v>4</v>
+      </c>
+      <c r="E29" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F29" s="31">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="30" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D30" s="35">
+        <v>4</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="36">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D27" s="3">
-        <v>4</v>
-      </c>
-      <c r="E27" s="4" t="s">
+      <c r="F31" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D32" s="6">
+        <v>1</v>
+      </c>
+      <c r="E32" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D28" s="6">
-        <v>4</v>
-      </c>
-      <c r="E28" s="7" t="s">
+      <c r="F32" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D34" s="6">
+        <v>1</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="8">
+        <f>8*25</f>
+        <v>200</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D35" s="10"/>
+      <c r="E35" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D29" s="3">
-        <v>4</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D30" s="6">
-        <v>4</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D31" s="12"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="10"/>
-    </row>
-    <row r="32" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D33" s="3">
-        <v>1</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F33" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D34" s="6"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D35" s="10"/>
-      <c r="E35" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F35" s="15">
-        <f>SUM(F5:F12,F14:F19,F21:F23,F26:F30,F33)</f>
-        <v>2204.88</v>
+      <c r="F35" s="12">
+        <f>SUM(F5:F12,F14:F19,F21:F24,F26:F30,F32,F34:F34)</f>
+        <v>2253.1499999999996</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C41" s="3"/>
+      <c r="D41" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="12">
+        <f>8*5*4*1.5*25</f>
+        <v>6000</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
